--- a/Data/to_palandacocha_diversity.xlsx
+++ b/Data/to_palandacocha_diversity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4ss0\Documents\Ikiam21062022\Environmental_Mycobacteria\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2672E63D-0996-40E4-9678-380B742ECBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975CE75B-A52F-4719-BFAB-3FA26A9819A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5C8FB60B-9856-49A8-A925-92EE18218D4A}"/>
   </bookViews>
@@ -34,25 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Sites</t>
-  </si>
-  <si>
-    <t>Mycobacterium sp</t>
-  </si>
-  <si>
-    <t>M. abscessus</t>
-  </si>
-  <si>
-    <t>M. magerintense</t>
-  </si>
-  <si>
-    <t>M. magerintense, Mycobacterium sp</t>
-  </si>
-  <si>
-    <t>M. Fortuitum</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>MTH</t>
   </si>
@@ -61,6 +43,27 @@
   </si>
   <si>
     <t>MCS</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>M_abscessus</t>
+  </si>
+  <si>
+    <t>M_magerintense</t>
+  </si>
+  <si>
+    <t>Mycobacterium</t>
+  </si>
+  <si>
+    <t>M_magerintense_Mycobacterium</t>
+  </si>
+  <si>
+    <t>M_Fortuitum</t>
+  </si>
+  <si>
+    <t>Tena</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4882AB2C-75BE-45DB-9262-4238AB96BFFA}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,27 +434,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -471,7 +474,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -491,7 +494,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -507,6 +510,31 @@
       </c>
       <c r="F4" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <f>SUM(B2:B4)</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:F5" si="0">SUM(C2:C4)</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/to_palandacocha_diversity.xlsx
+++ b/Data/to_palandacocha_diversity.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4ss0\Documents\Ikiam21062022\Environmental_Mycobacteria\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975CE75B-A52F-4719-BFAB-3FA26A9819A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7BCAFD-3119-4052-8EA6-BBA69096E0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5C8FB60B-9856-49A8-A925-92EE18218D4A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="raw_data" sheetId="2" r:id="rId1"/>
+    <sheet name="to_r" sheetId="1" r:id="rId2"/>
+    <sheet name="Beta_diversity" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="113">
   <si>
     <t>MTH</t>
   </si>
@@ -48,22 +50,331 @@
     <t>Site</t>
   </si>
   <si>
-    <t>M_abscessus</t>
-  </si>
-  <si>
-    <t>M_magerintense</t>
-  </si>
-  <si>
-    <t>Mycobacterium</t>
-  </si>
-  <si>
-    <t>M_magerintense_Mycobacterium</t>
-  </si>
-  <si>
-    <t>M_Fortuitum</t>
-  </si>
-  <si>
     <t>Tena</t>
+  </si>
+  <si>
+    <t>Strain</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Sanger_code</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>S37</t>
+  </si>
+  <si>
+    <t>S38</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>S34</t>
+  </si>
+  <si>
+    <t>S44</t>
+  </si>
+  <si>
+    <t>S47</t>
+  </si>
+  <si>
+    <t>S53</t>
+  </si>
+  <si>
+    <t>S55</t>
+  </si>
+  <si>
+    <t>S57</t>
+  </si>
+  <si>
+    <t>S64</t>
+  </si>
+  <si>
+    <t>S67</t>
+  </si>
+  <si>
+    <t>s46</t>
+  </si>
+  <si>
+    <t>s52</t>
+  </si>
+  <si>
+    <t>13y</t>
+  </si>
+  <si>
+    <t>15y</t>
+  </si>
+  <si>
+    <t>64y</t>
+  </si>
+  <si>
+    <t>65y</t>
+  </si>
+  <si>
+    <t>66y</t>
+  </si>
+  <si>
+    <t>s29</t>
+  </si>
+  <si>
+    <t>55y</t>
+  </si>
+  <si>
+    <t>58y</t>
+  </si>
+  <si>
+    <t>57Y</t>
+  </si>
+  <si>
+    <t>63Y</t>
+  </si>
+  <si>
+    <t>M. mageritense</t>
+  </si>
+  <si>
+    <t>M. abscessus</t>
+  </si>
+  <si>
+    <t>M. fortuitum</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>12y</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>67y</t>
+  </si>
+  <si>
+    <t>M. oryzae</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>68y</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>S36</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>S35</t>
+  </si>
+  <si>
+    <t>M. porcinum</t>
+  </si>
+  <si>
+    <t>S43</t>
+  </si>
+  <si>
+    <t>S45</t>
+  </si>
+  <si>
+    <t>56y</t>
+  </si>
+  <si>
+    <t>S48</t>
+  </si>
+  <si>
+    <t>59Y</t>
+  </si>
+  <si>
+    <t>S49</t>
+  </si>
+  <si>
+    <t>60Y</t>
+  </si>
+  <si>
+    <t>S56</t>
+  </si>
+  <si>
+    <t>S58</t>
+  </si>
+  <si>
+    <t>S59</t>
+  </si>
+  <si>
+    <t>S60</t>
+  </si>
+  <si>
+    <t>S61</t>
+  </si>
+  <si>
+    <t>S62</t>
+  </si>
+  <si>
+    <t>S65</t>
+  </si>
+  <si>
+    <t>S66</t>
+  </si>
+  <si>
+    <t>S39</t>
+  </si>
+  <si>
+    <t>50Y</t>
+  </si>
+  <si>
+    <t>M. syngnathidarum</t>
+  </si>
+  <si>
+    <t>S40</t>
+  </si>
+  <si>
+    <t>51Y</t>
+  </si>
+  <si>
+    <t>s42</t>
+  </si>
+  <si>
+    <t>53y</t>
+  </si>
+  <si>
+    <t>M. neworleansense</t>
+  </si>
+  <si>
+    <t>s43</t>
+  </si>
+  <si>
+    <t>54y</t>
+  </si>
+  <si>
+    <t>s41</t>
+  </si>
+  <si>
+    <t>52y</t>
+  </si>
+  <si>
+    <t>S68</t>
+  </si>
+  <si>
+    <t>S69</t>
+  </si>
+  <si>
+    <t>s70</t>
+  </si>
+  <si>
+    <t>s71</t>
+  </si>
+  <si>
+    <t>s72</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>29y</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>30y</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>S50</t>
+  </si>
+  <si>
+    <t>61Y</t>
+  </si>
+  <si>
+    <t>S51</t>
+  </si>
+  <si>
+    <t>62Y</t>
+  </si>
+  <si>
+    <t>S54</t>
+  </si>
+  <si>
+    <t>S63</t>
+  </si>
+  <si>
+    <t>s47</t>
   </si>
 </sst>
 </file>
@@ -120,6 +431,1385 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Beta_diversity!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M. abscessus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Beta_diversity!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>MTH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Beta_diversity!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D34-444D-AAFE-3B9D67C63429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Beta_diversity!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M. fortuitum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Beta_diversity!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>MTH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Beta_diversity!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D34-444D-AAFE-3B9D67C63429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Beta_diversity!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M. mageritense</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Beta_diversity!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>MTH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Beta_diversity!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3D34-444D-AAFE-3B9D67C63429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Beta_diversity!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M. neworleansense</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Beta_diversity!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>MTH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Beta_diversity!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3D34-444D-AAFE-3B9D67C63429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Beta_diversity!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M. oryzae</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Beta_diversity!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>MTH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Beta_diversity!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3D34-444D-AAFE-3B9D67C63429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Beta_diversity!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M. porcinum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Beta_diversity!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>MTH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Beta_diversity!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3D34-444D-AAFE-3B9D67C63429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Beta_diversity!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M. syngnathidarum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Beta_diversity!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>MTH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Beta_diversity!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3D34-444D-AAFE-3B9D67C63429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1208557487"/>
+        <c:axId val="728639935"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1208557487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Puntos de muestreo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728639935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="728639935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Porción de especies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1208557487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4701B8BC-80D5-4431-967A-A8743C870EE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,61 +2108,907 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4882AB2C-75BE-45DB-9262-4238AB96BFFA}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3586E8B9-6E86-41DC-88AC-52820BF6CB82}">
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4882AB2C-75BE-45DB-9262-4238AB96BFFA}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4</v>
-      </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -483,16 +3019,22 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -500,44 +3042,208 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:F5" si="0">SUM(C2:C4)</f>
+        <f t="shared" ref="C5:H5" si="0">SUM(C2:C4)</f>
         <v>2</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F311CAF-8389-4AE1-B355-D4BD75465500}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/to_palandacocha_diversity.xlsx
+++ b/Data/to_palandacocha_diversity.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4ss0\Documents\Ikiam21062022\Environmental_Mycobacteria\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7BCAFD-3119-4052-8EA6-BBA69096E0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA65F93-C2E5-40C3-8741-7DDAE4FA2C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5C8FB60B-9856-49A8-A925-92EE18218D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="2" r:id="rId1"/>
-    <sheet name="to_r" sheetId="1" r:id="rId2"/>
+    <sheet name="to_r2" sheetId="10" r:id="rId2"/>
     <sheet name="Beta_diversity" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="112">
   <si>
     <t>MTH</t>
   </si>
@@ -294,9 +294,6 @@
   </si>
   <si>
     <t>53y</t>
-  </si>
-  <si>
-    <t>M. neworleansense</t>
   </si>
   <si>
     <t>s43</t>
@@ -502,13 +499,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.16666666666666666</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,13 +564,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,13 +629,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7857142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -658,7 +655,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M. neworleansense</c:v>
+                  <c:v>M. oryzae</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -697,10 +694,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -723,7 +720,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M. oryzae</c:v>
+                  <c:v>M. porcinum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -762,10 +759,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -788,7 +785,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M. porcinum</c:v>
+                  <c:v>M. syngnathidarum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -827,10 +824,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -840,74 +837,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3D34-444D-AAFE-3B9D67C63429}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Beta_diversity!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M. syngnathidarum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Beta_diversity!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>MTH</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MCA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MCS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Beta_diversity!$B$8:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8.3333333333333329E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-3D34-444D-AAFE-3B9D67C63429}"/>
+              <c16:uniqueId val="{00000001-9E03-4C51-9485-650FA669789B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1072,8 +1002,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="es-ES" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Proporción</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Porción de especies</a:t>
+                  <a:t> de especies</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2710,7 +2646,7 @@
         <v>85</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2718,10 +2654,10 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" t="s">
-        <v>88</v>
       </c>
       <c r="D57" t="s">
         <v>43</v>
@@ -2732,10 +2668,10 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
         <v>89</v>
-      </c>
-      <c r="C58" t="s">
-        <v>90</v>
       </c>
       <c r="D58" t="s">
         <v>43</v>
@@ -2746,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2754,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2762,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2770,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2778,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2786,10 +2722,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" t="s">
         <v>96</v>
-      </c>
-      <c r="C64" t="s">
-        <v>97</v>
       </c>
       <c r="D64" t="s">
         <v>44</v>
@@ -2800,10 +2736,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" t="s">
         <v>98</v>
-      </c>
-      <c r="C65" t="s">
-        <v>99</v>
       </c>
       <c r="D65" t="s">
         <v>44</v>
@@ -2814,7 +2750,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2822,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2830,10 +2766,10 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2841,10 +2777,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2852,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,10 +2796,10 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2879,10 +2815,10 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" t="s">
         <v>106</v>
-      </c>
-      <c r="C73" t="s">
-        <v>107</v>
       </c>
       <c r="D73" t="s">
         <v>45</v>
@@ -2893,10 +2829,10 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" t="s">
         <v>108</v>
-      </c>
-      <c r="C74" t="s">
-        <v>109</v>
       </c>
       <c r="D74" t="s">
         <v>43</v>
@@ -2907,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2915,7 +2851,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2923,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C77" t="s">
         <v>40</v>
@@ -2939,24 +2875,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4882AB2C-75BE-45DB-9262-4238AB96BFFA}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FDD885-1DEE-4886-AEAE-CC9D3351AA54}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2970,19 +2896,16 @@
         <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2990,25 +2913,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3016,25 +2936,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
       <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3045,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -3056,11 +2973,8 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3069,27 +2983,23 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:H5" si="0">SUM(C2:C4)</f>
+        <f>SUM(C2:C4)</f>
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(D2:D4)</f>
         <v>19</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(E2:E4)</f>
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(F2:F4)</f>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(G2:G4)</f>
         <v>1</v>
       </c>
     </row>
@@ -3125,13 +3035,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="1">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>0.4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3139,13 +3049,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3153,24 +3063,24 @@
         <v>43</v>
       </c>
       <c r="B4" s="1">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -3178,13 +3088,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -3192,31 +3102,22 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>

--- a/Data/to_palandacocha_diversity.xlsx
+++ b/Data/to_palandacocha_diversity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4ss0\Documents\Ikiam21062022\Environmental_Mycobacteria\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA65F93-C2E5-40C3-8741-7DDAE4FA2C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262A7A9C-037E-44EF-9B20-F8EF23212293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5C8FB60B-9856-49A8-A925-92EE18218D4A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="113">
   <si>
     <t>MTH</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>s47</t>
+  </si>
+  <si>
+    <t>M. dioxanotrophicus</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
                   <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -525,7 +528,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M. fortuitum</c:v>
+                  <c:v>M. dioxanotrophicus</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -564,13 +567,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,7 +593,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M. mageritense</c:v>
+                  <c:v>M. fortuitum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -629,13 +632,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.7857142857142857</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,7 +658,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M. oryzae</c:v>
+                  <c:v>M. mageritense</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -694,13 +697,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.7857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -720,7 +723,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M. porcinum</c:v>
+                  <c:v>M. oryzae</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -762,7 +765,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -785,7 +788,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M. syngnathidarum</c:v>
+                  <c:v>M. porcinum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -827,7 +830,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -838,6 +841,73 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9E03-4C51-9485-650FA669789B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Beta_diversity!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M. syngnathidarum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Beta_diversity!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>MTH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Beta_diversity!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-220B-4610-99CA-98E8C3500010}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2771,6 +2841,9 @@
       <c r="C68" t="s">
         <v>101</v>
       </c>
+      <c r="D68" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -2876,13 +2949,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FDD885-1DEE-4886-AEAE-CC9D3351AA54}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2890,22 +2963,25 @@
         <v>44</v>
       </c>
       <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2913,22 +2989,25 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>11</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2939,19 +3018,22 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>6</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
       <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2962,44 +3044,51 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f>SUM(B2:B4)</f>
+        <f t="shared" ref="B5:H5" si="0">SUM(B2:B4)</f>
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <f>SUM(C2:C4)</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D5" s="1">
-        <f>SUM(D2:D4)</f>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E5" s="1">
-        <f>SUM(E2:E4)</f>
-        <v>1</v>
-      </c>
       <c r="F5" s="1">
-        <f>SUM(F2:F4)</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G5" s="1">
-        <f>SUM(G2:G4)</f>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3041,60 +3130,60 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1">
-        <v>7.1428571428571425E-2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
-        <v>0.7857142857142857</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="C4" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0.4</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C5" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -3102,22 +3191,31 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
